--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37C7AC2-B844-4DEB-AEE7-2D94D70F34A9}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E6F3B0-51A5-4DF9-95D6-90ADA5469DD7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Type</t>
   </si>
@@ -65,25 +65,41 @@
     <t>Delebil</t>
   </si>
   <si>
-    <t xml:space="preserve">Disse dataene dekker byområdene i Vestfold hvor vi har flest kontinuerlige tellepunkt. Vi har valgt å vise tall for de siste 5 årene. Det er valgt tellepunkt som er kontinuerlige, har god kvalitet og som ligger i sentrale strøk. For tungtrafikk er det valgt å vise andel tyngre kjøretøy som er over 5,6 meter lange. Det er viktig å understreke at tallene som vises gir et bilde av trafikkutviklingen. Tallene viser ikke det totale antall kjørte eller syklede kilometer for et byområde eller en kommune. Trafikkutviklingen på E18 er vist i en egen fane. Hvis du klikker på knappen "Vis hele Vestfold" oppe til høyre vises alle tellepunkter som er tatt med. </t>
-  </si>
-  <si>
-    <t>Denne tjenesten inneholder Støyvarselkart etter T-1442. Støyvarselkartene er utarbeidet etter Retningslinje for behandling av støy i arealplanlegging (T-1442). Støyvarselkartene viser beregnet rød (Lden&gt;65dB) og gul (Lden&gt;55dB) støysone langs riks- og fylkesveg. Støyvarselkartene fra Statens vegvesen viser en prognosesituasjon 15–20 år fram i tid. Det vil si at trafikkvolum (ÅDT), som er en av de viktigste parameterne i støyberegningsmodellen, er fremskrevet (basert på prognoser) til oppgitt beregningsår.</t>
-  </si>
-  <si>
-    <t>Tønsberg og Færder er slått sammen da de to kommunen utgjør et felles marked for kollektivtrafikken. Tallene er justerte for variasjon knyttet til ferieavvikling (eksempelvis om påsken er i mars eller april). Nedgangen i antall påstigende i juli er i stor grad knyttet til skoleferien. Noen bussruter i Holmestrand inneholder tall fra påstigende bussholdeplasser i Drammen. Skoleruter vises ikke i fanen med bussruter da de ikke er ordinære, men vises i fanen med busstrafikk for å få med den totale trafikkutviklingen. Størrelsen på punktene på kartet beskriver hvor mange påstigende den bussholdeplassen har. Desto flere påstigende, desto større boblestørrelse. Punktligheten for en busslinje som passerer flere kommuner vises som gjennomsnittet for alle kommuner den passerer, den viser ikke punktligheten i den kommune du eventuelt valgt ut. Fra og med 1. juli 2024 er busslinje 01 splittet i to nye ruter, busslinje 01 og busslinje 04. Dette gjøres for å forbedre punktligheten på den lange bussruten.</t>
-  </si>
-  <si>
     <t>Grunnet planlagt vedlikeholdsarbeid på strekningen ble det i perioden 24.juni – 6.august 2023 kjørt buss for tog på strekningen Asker-Stokke. Overgangen mellom tog og buss for tog foregikk altså på Stokke stasjon. I utgangspunktet skal passasjertallmodellen ta hensyn til overgang til buss for tog slik at dette ikke slår ut i økt antall av -og påstigninger på overgangsstasjonen. I perioden juni/juli oppsto det en feil som gjorde at modellen ikke klarte å hensynta bytte av transportmiddel og dette har slått ut i unormalt høyt antall av- og påstigende på Stokke stasjon og færre av- og påstigende i Tønsberg, Skoppum, Holmestrand og Sande.</t>
   </si>
   <si>
     <t xml:space="preserve">Hvert punkt viser en enkelt trafikkulykke. Det kan være flere personer som er skadet i en og samme ulykke. </t>
   </si>
   <si>
-    <t>Dette datasettet viser andre resultater enn de politirapporterte trafikkulykkene. Vi ser at kun 9 av 10 sykkelulykker er inkludert i det offisielle registeret. Et flertall av ulykkene involverer myke trafikanter. De fleste ulykkene skjer i byene, spesielt de ulykkene som involverer myke trafikanter. Vi ser andre ulykkesklynger (tilsvarende ulykkespunkter) enn det som er kjent i det offisielle registeret. Det er registrert svært få alvorlig skadde i dette datasettet. Her finnes en hypotese om at disse er fraktet direkte til Ullevål sykehus eller Rikshospitalet, da vil de ikke motta behandling ved Sykehuset i Vestfold og heller ikke bli registrert. Kartdataene er i svært stor grad registrert av den skadde selv, ved bruk av Ipad og Google Maps. I noen grad kan manglende kartdata skyldes at pasienten ikke er i stand til å fastsette hvor ulykken fant sted. Ved ulykker hvor den skadde er hentet med ambulanse er kartdata hentet direkte fra ambulansesystemet, her kan det også være svakheter.</t>
-  </si>
-  <si>
-    <t>Dette datasettet viser antall reserveringer av delebiler, som står parkert på kommunale parkeringsplasser, fra de tre mobilitetspunktene som finnes sentralt i Tønsberg. Dataene starter i september 2023, men det var ikke mulig å reservere delebil fra alle mobilitetspunktene før i mars 2024. Det er et ønske at flere byer i Vestfold skal bli inspirert av dette pilotprosjektet, og at det fremover skal bli enklere for innbyggerne i Vestfold å bruke en delebil. Det vil forhåpentligvis føre til at trafikkmengden går ned.</t>
+    <t>Jernbane - punktlighet</t>
+  </si>
+  <si>
+    <t>Disse dataene dekker byområdene i Vestfold hvor vi har flest kontinuerlige tellepunkt. Vi har valgt å vise tall for de siste 5 årene. Det er valgt tellepunkt som er kontinuerlige, har god kvalitet og som ligger i sentrale strøk. For tungtrafikk er det valgt å vise andel tyngre kjøretøy som er over 5,6 meter lange. Det er viktig å understreke at tallene som vises gir et bilde av trafikkutviklingen. 
+Tallene viser ikke det totale antall kjørte eller syklede kilometer for et byområde eller en kommune. Trafikkutviklingen på E18 er vist i en egen fane. Hvis du klikker på knappen "Vis hele Vestfold" oppe til høyre vises alle tellepunkter som er tatt med.</t>
+  </si>
+  <si>
+    <t>Denne tjenesten inneholder Støyvarselkart etter T-1442. Støyvarselkartene er utarbeidet etter Retningslinje for behandling av støy i arealplanlegging (T-1442). Støyvarselkartene viser beregnet rød (Lden&gt;65dB) og gul (Lden&gt;55dB) støysone langs riks- og fylkesveg. 
+Støyvarselkartene fra Statens vegvesen viser en prognosesituasjon 15–20 år fram i tid. Det vil si at trafikkvolum (ÅDT), som er en av de viktigste parameterne i støyberegningsmodellen, er fremskrevet (basert på prognoser) til oppgitt beregningsår.</t>
+  </si>
+  <si>
+    <t>Tønsberg og Færder er slått sammen da de to kommunen utgjør et felles marked for kollektivtrafikken. Tallene er justerte for variasjon knyttet til ferieavvikling (eksempelvis om påsken er i mars eller april). Nedgangen i antall påstigende i juli er i stor grad knyttet til skoleferien. Noen bussruter i Holmestrand inneholder tall fra påstigende bussholdeplasser i Drammen. 
+Skoleruter vises ikke i fanen med bussruter da de ikke er ordinære, men vises i fanen med busstrafikk for å få med den totale trafikkutviklingen. Størrelsen på punktene på kartet beskriver hvor mange påstigende den bussholdeplassen har. Desto flere påstigende, desto større boblestørrelse. 
+Punktligheten for en busslinje som passerer flere kommuner vises som gjennomsnittet for alle kommuner den passerer, den viser ikke punktligheten i den kommune du eventuelt valgt ut. Fra og med 1. juli 2024 er busslinje 01 splittet i to nye ruter, busslinje 01 og busslinje 04. Dette gjøres for å forbedre punktligheten på den lange bussruten.</t>
+  </si>
+  <si>
+    <t>Dette datasettet viser andre resultater enn de politirapporterte trafikkulykkene. Vi ser at kun 9 av 10 sykkelulykker er inkludert i det offisielle registeret. Et flertall av ulykkene involverer myke trafikanter. De fleste ulykkene skjer i byene, spesielt de ulykkene som involverer myke trafikanter. Vi ser andre ulykkesklynger (tilsvarende ulykkespunkter) enn det som er kjent i det offisielle registeret. 
+Det er registrert svært få alvorlig skadde i dette datasettet. Her finnes en hypotese om at disse er fraktet direkte til Ullevål sykehus eller Rikshospitalet, da vil de ikke motta behandling ved Sykehuset i Vestfold og heller ikke bli registrert. Kartdataene er i svært stor grad registrert av den skadde selv, ved bruk av Ipad og Google Maps. 
+I noen grad kan manglende kartdata skyldes at pasienten ikke er i stand til å fastsette hvor ulykken fant sted. Ved ulykker hvor den skadde er hentet med ambulanse er kartdata hentet direkte fra ambulansesystemet, her kan det også være svakheter.</t>
+  </si>
+  <si>
+    <t>Dette datasettet viser antall reserveringer av delebiler, som står parkert på kommunale parkeringsplasser, fra de tre mobilitetspunktene som finnes sentralt i Tønsberg. Dataene starter i september 2023, men det var ikke mulig å reservere delebil fra alle mobilitetspunktene før i mars 2024. 
+Det er et ønske at flere byer i Vestfold skal bli inspirert av dette pilotprosjektet, og at det fremover skal bli enklere for innbyggerne i Vestfold å bruke en delebil. Det vil forhåpentligvis føre til at trafikkmengden går ned.</t>
+  </si>
+  <si>
+    <t>Togene mot Oslo har generelt bedre punktlighet enn togene fra Oslo. Dette skyldes at togene som starter i Skien har kjørt kortere enn togene som kommer fra Eidsvoll. Togene fra Eidsvoll har også vært gjennom blant annet Oslo, hvor mye forsinkelser oppstår.
+Grunnen til at det mangler tall i Sandefjord i 2022, i tillegg til delvis mangler i 2021 og 2023, er brannen på Sandefjord stasjon som skjedde juli 2021. 
+Torp og Sande har ikke noe eget signalanlegg og vi får derfor ikke registrert når togene har faktisk ankomst og avgang.
+Juli er en periode med få avganger, og derfor anbefales det å fjerne juli fra grafene. Dette gjør man gjøre ved å klikke på en knapp som heter "Skru av tall for juli" oppe i høyre hjørne på siden med punktlighet for tog.</t>
   </si>
 </sst>
 </file>
@@ -119,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6D4220-2AF3-48EE-AF40-10DC2BA8AD55}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +485,7 @@
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,60 +493,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E6F3B0-51A5-4DF9-95D6-90ADA5469DD7}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{886207B4-51F9-4751-AAE5-6F1F35BD12E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>Togene mot Oslo har generelt bedre punktlighet enn togene fra Oslo. Dette skyldes at togene som starter i Skien har kjørt kortere enn togene som kommer fra Eidsvoll. Togene fra Eidsvoll har også vært gjennom blant annet Oslo, hvor mye forsinkelser oppstår.
 Grunnen til at det mangler tall i Sandefjord i 2022, i tillegg til delvis mangler i 2021 og 2023, er brannen på Sandefjord stasjon som skjedde juli 2021. 
 Torp og Sande har ikke noe eget signalanlegg og vi får derfor ikke registrert når togene har faktisk ankomst og avgang.
-Juli er en periode med få avganger, og derfor anbefales det å fjerne juli fra grafene. Dette gjør man gjøre ved å klikke på en knapp som heter "Skru av tall for juli" oppe i høyre hjørne på siden med punktlighet for tog.</t>
+Juli er en periode med få avganger, og derfor er juli i utgangpunktet fjernet fra grafene. For å skru på tall for juli klikker på du en knapp som heter "Skru på tall for juli" oppe i høyre hjørne på siden med punktlighet for tog.</t>
   </si>
 </sst>
 </file>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{886207B4-51F9-4751-AAE5-6F1F35BD12E9}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357EF170-FBCB-414E-AE0A-7EBE8AE5928F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Type</t>
   </si>
@@ -90,16 +90,21 @@
     <t>Dette datasettet viser andre resultater enn de politirapporterte trafikkulykkene. Vi ser at kun 9 av 10 sykkelulykker er inkludert i det offisielle registeret. Et flertall av ulykkene involverer myke trafikanter. De fleste ulykkene skjer i byene, spesielt de ulykkene som involverer myke trafikanter. Vi ser andre ulykkesklynger (tilsvarende ulykkespunkter) enn det som er kjent i det offisielle registeret. 
 Det er registrert svært få alvorlig skadde i dette datasettet. Her finnes en hypotese om at disse er fraktet direkte til Ullevål sykehus eller Rikshospitalet, da vil de ikke motta behandling ved Sykehuset i Vestfold og heller ikke bli registrert. Kartdataene er i svært stor grad registrert av den skadde selv, ved bruk av Ipad og Google Maps. 
 I noen grad kan manglende kartdata skyldes at pasienten ikke er i stand til å fastsette hvor ulykken fant sted. Ved ulykker hvor den skadde er hentet med ambulanse er kartdata hentet direkte fra ambulansesystemet, her kan det også være svakheter.</t>
-  </si>
-  <si>
-    <t>Dette datasettet viser antall reserveringer av delebiler, som står parkert på kommunale parkeringsplasser, fra de tre mobilitetspunktene som finnes sentralt i Tønsberg. Dataene starter i september 2023, men det var ikke mulig å reservere delebil fra alle mobilitetspunktene før i mars 2024. 
-Det er et ønske at flere byer i Vestfold skal bli inspirert av dette pilotprosjektet, og at det fremover skal bli enklere for innbyggerne i Vestfold å bruke en delebil. Det vil forhåpentligvis føre til at trafikkmengden går ned.</t>
   </si>
   <si>
     <t>Togene mot Oslo har generelt bedre punktlighet enn togene fra Oslo. Dette skyldes at togene som starter i Skien har kjørt kortere enn togene som kommer fra Eidsvoll. Togene fra Eidsvoll har også vært gjennom blant annet Oslo, hvor mye forsinkelser oppstår.
 Grunnen til at det mangler tall i Sandefjord i 2022, i tillegg til delvis mangler i 2021 og 2023, er brannen på Sandefjord stasjon som skjedde juli 2021. 
 Torp og Sande har ikke noe eget signalanlegg og vi får derfor ikke registrert når togene har faktisk ankomst og avgang.
 Juli er en periode med få avganger, og derfor er juli i utgangpunktet fjernet fra grafene. For å skru på tall for juli klikker på du en knapp som heter "Skru på tall for juli" oppe i høyre hjørne på siden med punktlighet for tog.</t>
+  </si>
+  <si>
+    <t>Elsparkesykkel/elsykkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dette datasettet viser bruk av delte biler, fra de tre mobilitetspunktene som finnes sentralt i Tønsberg. Tjenesten ble etablert i september 2023 i mobilitetspunktet på Jernbanestasjonen. De to andre mobilitetspunktene ble etablert i mars 2024. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datasettet viser bruk av delt mikromobilitet i Sandefjord og Tønsberg. Tjenesten ble etablert i Sandefjord i januar 2025 og i mai 2025 i Tønsberg. Datene er levert av Ryde i begge byene. I Tønsberg tilbys både elsparkesykkel og elsykel, i Sandefjord tilbys elsparkesykkel. Merk at man kan på menysiden med elsparkesykkel/elsykkel kan klikke seg videre til en kartløsning som viser hvor turerne starter og stopper. </t>
   </si>
 </sst>
 </file>
@@ -474,18 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6D4220-2AF3-48EE-AF40-10DC2BA8AD55}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -501,7 +507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -509,7 +515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -517,7 +523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -525,15 +531,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -541,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -549,12 +555,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Veiledningstekst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357EF170-FBCB-414E-AE0A-7EBE8AE5928F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{DDFB194D-53E3-4BC3-BC68-30E66A797E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9678F9C2-EF45-4D93-90AE-8AFBFA426959}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{82DE7516-CBDE-45FF-9F1E-52480DA26130}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Dette datasettet viser bruk av delte biler, fra de tre mobilitetspunktene som finnes sentralt i Tønsberg. Tjenesten ble etablert i september 2023 i mobilitetspunktet på Jernbanestasjonen. De to andre mobilitetspunktene ble etablert i mars 2024. </t>
   </si>
   <si>
-    <t xml:space="preserve">Datasettet viser bruk av delt mikromobilitet i Sandefjord og Tønsberg. Tjenesten ble etablert i Sandefjord i januar 2025 og i mai 2025 i Tønsberg. Datene er levert av Ryde i begge byene. I Tønsberg tilbys både elsparkesykkel og elsykel, i Sandefjord tilbys elsparkesykkel. Merk at man kan på menysiden med elsparkesykkel/elsykkel kan klikke seg videre til en kartløsning som viser hvor turerne starter og stopper. </t>
+    <t xml:space="preserve">Datasettet viser bruk av delt mikromobilitet i Sandefjord og Tønsberg. Tjenesten ble etablert i Sandefjord i januar 2025 og i mai 2025 i Tønsberg. Datene er levert av Ryde i begge byene. I Tønsberg tilbys både elsparkesykkel og elsykkel, i Sandefjord tilbys elsparkesykkel. Merk at man på menysiden med elsparkesykkel/elsykkel kan klikke seg videre til en kartløsning som viser hvor turerne starter og stopper. </t>
   </si>
 </sst>
 </file>
